--- a/Packages/cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D313336-1172-CF44-9FCD-3438DF99836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72078F64-701D-9C42-A816-BEFCEF6A45AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestObjectiveConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -99,14 +99,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ET.QuestObjectiveParams_KillMonster</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,6 +132,10 @@
   </si>
   <si>
     <t>需要的数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,18 +184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,13 +212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,7 +493,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -553,16 +531,14 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -581,14 +557,14 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -599,10 +575,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -621,14 +597,14 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="4">
@@ -641,13 +617,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -665,19 +641,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -695,7 +671,7 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72078F64-701D-9C42-A816-BEFCEF6A45AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A274F6-D24D-8048-BC1A-5C9DC19F1E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="980" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestObjectiveConfig" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ET.QuestObjectiveParams_Collectltem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>KillMonster</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>Params</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET.QuestObjectiveParams_CollectItem</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +493,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -531,10 +531,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
@@ -597,7 +597,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>17</v>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -647,13 +647,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>

--- a/Packages/cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A274F6-D24D-8048-BC1A-5C9DC19F1E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B351DB-94A4-BA48-A16D-EA9837703B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="980" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="8040" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestObjectiveConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -103,22 +103,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>采集野花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集2朵野花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>KillMonster</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Collectltem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NeedCount</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,7 +123,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ET.QuestObjectiveParams_CollectItem</t>
+    <t>击杀1头熊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +481,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -531,10 +519,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -557,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
@@ -597,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>17</v>
@@ -617,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -625,8 +613,8 @@
       <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
+      <c r="H5" s="4">
+        <v>1003</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -641,22 +629,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1004</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
